--- a/SpininngTop/my仕様書.xlsx
+++ b/SpininngTop/my仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\github\keep\SpininngTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619EAFCA-6B2A-42F6-9569-4BBF7BBF0BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67186F19-C0A6-4674-9433-6DC95AF01C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="2730" windowWidth="21600" windowHeight="11295" firstSheet="4" activeTab="7" xr2:uid="{127F85DF-6F0D-4AD4-97B9-72952FF0B48F}"/>
+    <workbookView xWindow="2130" yWindow="2835" windowWidth="21600" windowHeight="11295" xr2:uid="{127F85DF-6F0D-4AD4-97B9-72952FF0B48F}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,94 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>SpinningTop仕様書</t>
+    <rPh sb="11" eb="14">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画・仕様書・進捗管理・プログラム：仲田</t>
+    <rPh sb="18" eb="20">
+      <t>ナカダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム:髙崎、古川</t>
+    <rPh sb="6" eb="8">
+      <t>タカサキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フルカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用エンジン</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制作期間</t>
+    <rPh sb="0" eb="4">
+      <t>セイサクキカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約3カ月(5/9~7/29)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押し出しアクション(?)</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材候補(見つけ次第追加予定)</t>
+    <rPh sb="0" eb="4">
+      <t>ソザイコウホ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="14">
+      <t>シダイツイカヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
@@ -67,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -75,14 +163,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,14 +570,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DF6552-AA3A-4EF5-BDFD-3E916600BE17}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -492,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0BE2-F1AC-4E45-96F4-FB26EC0DCDC3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/SpininngTop/my仕様書.xlsx
+++ b/SpininngTop/my仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\github\keep\SpininngTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67186F19-C0A6-4674-9433-6DC95AF01C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C99C6A-B828-4303-AFF6-51E655FECCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="2835" windowWidth="21600" windowHeight="11295" xr2:uid="{127F85DF-6F0D-4AD4-97B9-72952FF0B48F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{127F85DF-6F0D-4AD4-97B9-72952FF0B48F}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>SpinningTop仕様書</t>
     <rPh sb="11" eb="14">
@@ -125,12 +125,55 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>シーン遷移図</t>
+    <rPh sb="3" eb="6">
+      <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低限</t>
+    <rPh sb="0" eb="3">
+      <t>サイテイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できれば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面&amp;オプション画面仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特にこれといった詳細は決まっていない</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +189,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -231,8 +295,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -254,6 +321,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -271,6 +347,1183 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015D10DA-F9DE-41AE-BFA5-4774DE9A3B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="691563" y="745992"/>
+          <a:ext cx="7282223" cy="3594688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>634255</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9332E3-F627-43B5-BC40-A130B3E35050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3368490" y="1048870"/>
+          <a:ext cx="1640540" cy="788895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>モードセレクト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>人数やモード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>338419</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>611842</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE97D5A-8ADF-453F-ACF8-33AA009C67F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1021978" y="1044387"/>
+          <a:ext cx="1640540" cy="788895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>293595</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>567018</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3B7301-684D-418C-ADBD-F722FD66D0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762066" y="1055593"/>
+          <a:ext cx="1640540" cy="788895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ゲーム画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244290</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>517713</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>159123</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38AF7E5-8559-4230-917E-00933F248BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5712761" y="2900081"/>
+          <a:ext cx="1640540" cy="788895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>リザルト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>645291</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矢印: 右 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409C765C-449C-448E-AEE2-24DC1AF5F42E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2678206" y="1109382"/>
+          <a:ext cx="701320" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>253253</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>271014</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矢印: 右 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F1DE82-82B3-4B56-8A20-9384FE6606C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038165" y="1116105"/>
+          <a:ext cx="701320" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>492975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>116628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156799</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111977</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B235FB5D-9401-472E-BCA9-20DA21C8A567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6468036" y="2176184"/>
+          <a:ext cx="701320" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>611673</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CD4C5C-EBA9-4E90-A3F5-24A4D366911F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13020969">
+          <a:off x="4695265" y="2241178"/>
+          <a:ext cx="701320" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>618397</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>197226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矢印: 右 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B612725C-5F52-4F55-8ECF-CE02002C0D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2651312" y="1497108"/>
+          <a:ext cx="701320" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>515387</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>105419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>179212</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矢印: 右 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{461849D9-4042-47E0-9DB0-AEEC99D6A850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5806890" y="2164975"/>
+          <a:ext cx="701320" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>94132</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367554</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FB0E6E-DEA0-40C9-900B-883CEEF4503A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2144808" y="2817157"/>
+          <a:ext cx="1640540" cy="788895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>オプション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127663</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>475046</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矢印: 右 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D64090B-63F3-4EC6-A34A-0E0F2033139D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3140073">
+          <a:off x="2001371" y="2203075"/>
+          <a:ext cx="701320" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403326</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67151</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矢印: 右 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A76B17-5928-417F-A8B3-970E1BF374E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13940073">
+          <a:off x="1593476" y="2187388"/>
+          <a:ext cx="701320" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>562367</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>226191</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矢印: 右 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691B93AD-EF85-4482-AF23-CCA159008B3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18740205">
+          <a:off x="3119634" y="2100066"/>
+          <a:ext cx="701320" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300148</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>159297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647531</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>154646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矢印: 右 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93165E8-F6B3-42F7-80C8-6C10C6B61392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7940205">
+          <a:off x="3540974" y="2218853"/>
+          <a:ext cx="701320" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>424223</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97FEACD1-6B65-4A13-B69E-C722ECA9E2FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="476250"/>
+          <a:ext cx="7282223" cy="3594688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927DBF49-2489-4F26-8064-E520409C1E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="952500"/>
+          <a:ext cx="2847975" cy="1339811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>タイトルロゴ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DF6552-AA3A-4EF5-BDFD-3E916600BE17}">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -580,24 +1833,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
@@ -605,22 +1858,22 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
@@ -669,27 +1922,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC413C88-EFF7-4DEB-AD3A-AFEBFAE3B9C5}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C07C71C-E4FA-4CBC-9A6B-7B84B642B9B0}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
